--- a/target/classes/ExReader/Suite1.xlsx
+++ b/target/classes/ExReader/Suite1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Iteration</t>
   </si>
@@ -101,12 +101,6 @@
     <t>sunil123</t>
   </si>
   <si>
-    <t>Raju</t>
-  </si>
-  <si>
-    <t>Rajiu13</t>
-  </si>
-  <si>
     <t>TestA5</t>
   </si>
   <si>
@@ -197,7 +191,52 @@
     <t>confirmpassword</t>
   </si>
   <si>
-    <t>IBM</t>
+    <t>john123</t>
+  </si>
+  <si>
+    <t>hana123</t>
+  </si>
+  <si>
+    <t>ferry</t>
+  </si>
+  <si>
+    <t>ferry123</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>maria123</t>
+  </si>
+  <si>
+    <t>jasmine</t>
+  </si>
+  <si>
+    <t>jasmine123</t>
+  </si>
+  <si>
+    <t>sage123</t>
+  </si>
+  <si>
+    <t>july123</t>
+  </si>
+  <si>
+    <t>johnJ</t>
+  </si>
+  <si>
+    <t>hanaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hana123 </t>
+  </si>
+  <si>
+    <t>sageme</t>
+  </si>
+  <si>
+    <t>julyi</t>
+  </si>
+  <si>
+    <t>Russel Hamilton</t>
   </si>
 </sst>
 </file>
@@ -344,17 +383,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,14 +417,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I50" sqref="I49:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,17 +724,18 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -750,15 +787,15 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6">
@@ -769,73 +806,83 @@
         <v>24</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -846,262 +893,258 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1110,132 +1153,199 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="6">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="6">
+        <v>2</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="6">
         <v>3</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1">
+      <c r="B46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="6">
         <v>4</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1">
+      <c r="B47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="B48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="A49" s="6">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="A50" s="6">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6">
+        <v>8</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
